--- a/GwentInfoTable.xlsx
+++ b/GwentInfoTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University Files\AP\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Ap\Group05\Group-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFF3CC6F-8FC9-4639-9D9D-04CAB1B9AC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E7BBC9-1B95-451A-A90A-B97DDE68BCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{E84981D5-C9C4-4B9E-88D2-576F6D70B49A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{E84981D5-C9C4-4B9E-88D2-576F6D70B49A}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitCards" sheetId="3" r:id="rId1"/>
@@ -831,11 +831,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -844,7 +844,7 @@
       <i/>
       <sz val="11"/>
       <color theme="9"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -852,7 +852,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -860,7 +860,7 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -868,7 +868,7 @@
       <b/>
       <sz val="12"/>
       <color theme="8" tint="-0.249977111117893"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -876,7 +876,7 @@
       <b/>
       <sz val="12"/>
       <color theme="7" tint="-0.499984740745262"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -884,7 +884,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFC00000"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -892,7 +892,7 @@
       <b/>
       <sz val="12"/>
       <color theme="9" tint="-0.249977111117893"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -900,7 +900,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF7030A0"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -908,7 +908,7 @@
       <b/>
       <sz val="12"/>
       <color theme="2" tint="-0.249977111117893"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -916,14 +916,14 @@
       <b/>
       <sz val="16"/>
       <color rgb="FFC00000"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FFC00000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -938,7 +938,7 @@
       <b/>
       <sz val="16"/>
       <color theme="7" tint="-0.499984740745262"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -952,7 +952,7 @@
       <b/>
       <sz val="16"/>
       <color theme="8" tint="-0.249977111117893"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -972,7 +972,7 @@
       <b/>
       <sz val="16"/>
       <color theme="9" tint="-0.499984740745262"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -986,7 +986,7 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF7030A0"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -1144,36 +1144,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1204,25 +1174,58 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1244,6 +1247,30 @@
         <family val="1"/>
         <scheme val="major"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1269,6 +1296,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <strike val="0"/>
@@ -1282,36 +1312,6 @@
         <family val="1"/>
         <scheme val="major"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1335,47 +1335,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A21BBB5-3E3C-4AD2-AB51-7CA008D3CC77}" name="Table13" displayName="Table13" ref="A1:H150" totalsRowShown="0" headerRowDxfId="7" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A21BBB5-3E3C-4AD2-AB51-7CA008D3CC77}" name="Table13" displayName="Table13" ref="A1:H150" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:H150" xr:uid="{79AD22B3-C52D-4440-9058-152415C24DBE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H150">
     <sortCondition ref="B1:B150"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C48DAC4D-5C7A-41A0-B4CD-5825D4F7E92A}" name="Card Name" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{AC2816B1-B313-43AC-BD52-EEDEE919E19B}" name="Faction" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{D2AFD57F-C976-4075-91A7-BFEFEB4CEFED}" name="Power" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{9B8B88E7-5AC4-42AC-9102-C2F821882B3C}" name="Max No." dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{27F7D02E-7FB2-4F8C-8B0F-52CF72BEC929}" name="Type (Combat)" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{12EBE489-89F6-4899-8E86-8EB9B78549A4}" name="Ability" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{0F6FA689-8482-4925-9BE4-E55852BBB80A}" name="is Hero" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{0584495E-8699-45BB-A454-269D4003DC5F}" name="Description" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{C48DAC4D-5C7A-41A0-B4CD-5825D4F7E92A}" name="Card Name" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{AC2816B1-B313-43AC-BD52-EEDEE919E19B}" name="Faction" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{D2AFD57F-C976-4075-91A7-BFEFEB4CEFED}" name="Power" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{9B8B88E7-5AC4-42AC-9102-C2F821882B3C}" name="Max No." dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{27F7D02E-7FB2-4F8C-8B0F-52CF72BEC929}" name="Type (Combat)" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{12EBE489-89F6-4899-8E86-8EB9B78549A4}" name="Ability" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{0F6FA689-8482-4925-9BE4-E55852BBB80A}" name="is Hero" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{0584495E-8699-45BB-A454-269D4003DC5F}" name="Description" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{79AD22B3-C52D-4440-9058-152415C24DBE}" name="Table1" displayName="Table1" ref="A1:F10" totalsRowShown="0" headerRowDxfId="3" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{79AD22B3-C52D-4440-9058-152415C24DBE}" name="Table1" displayName="Table1" ref="A1:F10" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F10" xr:uid="{79AD22B3-C52D-4440-9058-152415C24DBE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F10">
     <sortCondition ref="D1:D10"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6979AED7-5A23-423E-BE8B-B2CFC531A357}" name="Card Name" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{923D22E6-2388-4676-864D-9C9228A4D77C}" name="Faction" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{B099C796-8CF7-4FA5-98DF-C8E7F7785661}" name="Max No." dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{CA35132A-BD85-4A0F-B42D-357B6A6B31EE}" name="Type" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{14304517-F55F-45C0-9E83-F9BB9F5E7240}" name="Ability" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{8D45C4BA-5FBD-401A-AD2B-630209E74DF0}" name="Description" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{6979AED7-5A23-423E-BE8B-B2CFC531A357}" name="Card Name" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{923D22E6-2388-4676-864D-9C9228A4D77C}" name="Faction" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{B099C796-8CF7-4FA5-98DF-C8E7F7785661}" name="Max No." dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{CA35132A-BD85-4A0F-B42D-357B6A6B31EE}" name="Type" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{14304517-F55F-45C0-9E83-F9BB9F5E7240}" name="Ability" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{8D45C4BA-5FBD-401A-AD2B-630209E74DF0}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1413,7 +1413,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1519,7 +1519,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1661,7 +1661,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1675,19 +1675,19 @@
       <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="28.8" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="28.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="28.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.19921875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.69921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="64.69921875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="28.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="64.7265625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="28.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>195</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>166</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>177</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="28.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>173</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="28.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>169</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="28.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>170</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="28.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>176</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>172</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="28.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>167</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="28.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>168</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="28.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>171</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="28.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>174</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="28.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>175</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="28.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>178</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="28.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>125</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="28.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>142</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="28.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>127</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="28.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>128</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="28.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>129</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="28.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>130</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="28.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>156</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="28.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>154</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="28.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>144</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="28.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>145</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="28.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>146</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="28.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>147</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="28.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>140</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="28.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>126</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="28.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>143</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="28.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>148</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="28.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>149</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="28.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>122</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="28.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>131</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="28.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>150</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="28.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>132</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="28.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>133</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="28.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>151</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="28.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>134</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="28.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>135</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="28.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>152</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="28.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>136</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="28.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>137</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="28.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>153</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="28.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>138</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="28.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>123</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="28.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>124</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="28.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>139</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="28.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>141</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="28.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>155</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="28.75" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>111</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="28.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>113</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="28.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>117</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="28.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>95</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="28.75" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>94</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="28.75" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>98</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="28.75" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>93</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="28.75" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>115</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="28.75" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>96</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="28.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>110</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="28.75" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>100</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="28.75" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>101</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="28.75" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>97</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="28.75" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>205</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="28.75" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>104</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="28.75" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>106</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="28.75" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>112</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="28.75" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>114</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="28.75" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>109</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="28.75" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>99</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="28.75" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>116</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="28.75" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>103</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="28.75" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>105</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="28.75" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>108</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="28.75" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>118</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="28.75" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>102</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="28.75" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>119</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="28.75" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>120</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="28.75" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>107</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="28.75" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>72</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="28.75" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>75</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="28.75" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="28.75" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="28.75" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>85</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="28.75" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>204</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="28.75" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>69</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="28.75" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>70</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="28.75" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>78</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="28.75" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>68</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="28.75" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>71</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="28.75" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>73</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="28.75" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>74</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="28.75" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>76</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="28.75" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>77</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="28.75" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>80</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="28.75" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>81</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="28.75" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>82</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="28.75" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>83</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="28.75" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>206</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="28.75" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>207</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="28.75" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>86</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="28.75" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>87</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="28.75" customHeight="1">
       <c r="A102" s="1" t="s">
         <v>88</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="28.75" customHeight="1">
       <c r="A103" s="1" t="s">
         <v>89</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="28.75" customHeight="1">
       <c r="A104" s="1" t="s">
         <v>52</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="28.75" customHeight="1">
       <c r="A105" s="1" t="s">
         <v>65</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="28.75" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>60</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="28.75" customHeight="1">
       <c r="A107" s="1" t="s">
         <v>50</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="28.75" customHeight="1">
       <c r="A108" s="1" t="s">
         <v>43</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="28.75" customHeight="1">
       <c r="A109" s="1" t="s">
         <v>53</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="28.75" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>62</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="28.75" customHeight="1">
       <c r="A111" s="1" t="s">
         <v>63</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="28.75" customHeight="1">
       <c r="A112" s="1" t="s">
         <v>46</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="28.75" customHeight="1">
       <c r="A113" s="1" t="s">
         <v>47</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="28.75" customHeight="1">
       <c r="A114" s="1" t="s">
         <v>49</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="28.75" customHeight="1">
       <c r="A115" s="1" t="s">
         <v>48</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="28.75" customHeight="1">
       <c r="A116" s="1" t="s">
         <v>64</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="28.75" customHeight="1">
       <c r="A117" s="1" t="s">
         <v>51</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="28.75" customHeight="1">
       <c r="A118" s="1" t="s">
         <v>54</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="28.75" customHeight="1">
       <c r="A119" s="1" t="s">
         <v>44</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="28.75" customHeight="1">
       <c r="A120" s="1" t="s">
         <v>58</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="28.75" customHeight="1">
       <c r="A121" s="1" t="s">
         <v>55</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="28.75" customHeight="1">
       <c r="A122" s="1" t="s">
         <v>61</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="28.75" customHeight="1">
       <c r="A123" s="1" t="s">
         <v>56</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="28.75" customHeight="1">
       <c r="A124" s="1" t="s">
         <v>57</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="28.75" customHeight="1">
       <c r="A125" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="28.75" customHeight="1">
       <c r="A126" s="1" t="s">
         <v>45</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="28.75" customHeight="1">
       <c r="A127" s="1" t="s">
         <v>1</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="28.75" customHeight="1">
       <c r="A128" s="1" t="s">
         <v>18</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="28.75" customHeight="1">
       <c r="A129" s="1" t="s">
         <v>23</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="28.75" customHeight="1">
       <c r="A130" s="1" t="s">
         <v>16</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="28.75" customHeight="1">
       <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="28.75" customHeight="1">
       <c r="A132" s="1" t="s">
         <v>24</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="28.75" customHeight="1">
       <c r="A133" s="1" t="s">
         <v>2</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="28.75" customHeight="1">
       <c r="A134" s="1" t="s">
         <v>9</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="28.75" customHeight="1">
       <c r="A135" s="1" t="s">
         <v>20</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="28.75" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>14</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="28.75" customHeight="1">
       <c r="A137" s="1" t="s">
         <v>6</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="28.75" customHeight="1">
       <c r="A138" s="1" t="s">
         <v>12</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="28.75" customHeight="1">
       <c r="A139" s="1" t="s">
         <v>22</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="28.75" customHeight="1">
       <c r="A140" s="1" t="s">
         <v>19</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="28.75" customHeight="1">
       <c r="A141" s="1" t="s">
         <v>10</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="28.75" customHeight="1">
       <c r="A142" s="1" t="s">
         <v>7</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="28.75" customHeight="1">
       <c r="A143" s="1" t="s">
         <v>15</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="28.75" customHeight="1">
       <c r="A144" s="1" t="s">
         <v>13</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="28.75" customHeight="1">
       <c r="A145" s="1" t="s">
         <v>5</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="28.75" customHeight="1">
       <c r="A146" s="1" t="s">
         <v>17</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="28.75" customHeight="1">
       <c r="A147" s="1" t="s">
         <v>21</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="28.75" customHeight="1">
       <c r="A148" s="1" t="s">
         <v>8</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="28.75" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>3</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="28.75" customHeight="1">
       <c r="A150" s="1" t="s">
         <v>4</v>
       </c>
@@ -4557,18 +4557,18 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="28.8" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="28.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="28.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.69921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="73.5" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="28.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="73.453125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>195</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>164</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>165</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>159</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>160</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>161</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>162</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="28.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>163</v>
       </c>
@@ -4756,19 +4756,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23D4129-2EE5-4D62-A89F-EEA0DDBBE74B}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="27.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="27.65" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.796875" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" customWidth="1"/>
     <col min="2" max="2" width="29" style="2" customWidth="1"/>
     <col min="3" max="3" width="27" style="2" customWidth="1"/>
-    <col min="4" max="4" width="84.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="84.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="27.65" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>196</v>
       </c>
@@ -4782,243 +4782,243 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:4" ht="36.65" customHeight="1">
+      <c r="A2" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="16" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="25" t="s">
+    <row r="3" spans="1:4" ht="36.65" customHeight="1">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="16" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="25" t="s">
+    <row r="4" spans="1:4" ht="36.65" customHeight="1">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="16" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="25" t="s">
+    <row r="5" spans="1:4" ht="36.65" customHeight="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="16" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="25" t="s">
+    <row r="6" spans="1:4" ht="36.65" customHeight="1">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="16" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:4" ht="36.65" customHeight="1">
+      <c r="A7" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="18" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="27" t="s">
+    <row r="8" spans="1:4" ht="36.65" customHeight="1">
+      <c r="A8" s="30"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="18" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="27" t="s">
+    <row r="9" spans="1:4" ht="36.65" customHeight="1">
+      <c r="A9" s="30"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="18" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="27" t="s">
+    <row r="10" spans="1:4" ht="36.65" customHeight="1">
+      <c r="A10" s="30"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="18" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="27" t="s">
+    <row r="11" spans="1:4" ht="36.65" customHeight="1">
+      <c r="A11" s="30"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="18" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:4" ht="36.65" customHeight="1">
+      <c r="A12" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="20" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="29" t="s">
+    <row r="13" spans="1:4" ht="36.65" customHeight="1">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="20" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="29" t="s">
+    <row r="14" spans="1:4" ht="36.65" customHeight="1">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="20" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="29" t="s">
+    <row r="15" spans="1:4" ht="36.65" customHeight="1">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="20" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="29" t="s">
+    <row r="16" spans="1:4" ht="36.65" customHeight="1">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="20" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+    <row r="17" spans="1:4" ht="36.65" customHeight="1">
+      <c r="A17" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="22" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="31" t="s">
+    <row r="18" spans="1:4" ht="36.65" customHeight="1">
+      <c r="A18" s="34"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="22" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="31" t="s">
+    <row r="19" spans="1:4" ht="36.65" customHeight="1">
+      <c r="A19" s="34"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="22" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="31" t="s">
+    <row r="20" spans="1:4" ht="36.65" customHeight="1">
+      <c r="A20" s="34"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="22" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="31" t="s">
+    <row r="21" spans="1:4" ht="36.65" customHeight="1">
+      <c r="A21" s="34"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="22" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+    <row r="22" spans="1:4" ht="36.65" customHeight="1">
+      <c r="A22" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="24" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="33" t="s">
+    <row r="23" spans="1:4" ht="36.65" customHeight="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="24" t="s">
         <v>243</v>
       </c>
     </row>
